--- a/output/coin_analysis_20251018_190405.xlsx
+++ b/output/coin_analysis_20251018_190405.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\OMG\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84560BBD-EA80-4E60-B505-80491518D4AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187FE73E-D926-4FF8-9FB1-6D0CE177570B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="코인분석" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">코인분석!$A$1:$R$91</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -2230,12 +2233,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -2265,12 +2274,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2576,7 +2587,8 @@
   <dimension ref="A1:R91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I23" activeCellId="1" sqref="O23 I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3568,59 +3580,59 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
-      <c r="A23">
+    <row r="23" spans="1:18" s="3" customFormat="1">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="4">
         <v>3.9682300000000001</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="N23" t="s">
+      <c r="N23" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="O23" t="s">
+      <c r="O23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P23" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="Q23" s="4">
         <v>4.571248423707444</v>
       </c>
-      <c r="R23" t="s">
+      <c r="R23" s="3" t="s">
         <v>197</v>
       </c>
     </row>
@@ -6313,6 +6325,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R91" xr:uid="{4CA0660E-1DF8-4D3E-8FBE-972FBBB4FA0B}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
